--- a/FoodManagement.xlsx
+++ b/FoodManagement.xlsx
@@ -3419,8 +3419,8 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
